--- a/biology/Botanique/Liste_d'espèces_décrites_en_2006/Liste_d'espèces_décrites_en_2006.xlsx
+++ b/biology/Botanique/Liste_d'espèces_décrites_en_2006/Liste_d'espèces_décrites_en_2006.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+          <t>Liste_d'espèces_décrites_en_2006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles espèces vivantes sont régulièrement définies chaque année.
 L'apparition d'une nouvelle espèce dans la nomenclature peut se faire de trois manières principales :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+          <t>Liste_d'espèces_décrites_en_2006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,59 +532,143 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces vivantes décrites en 2006
-Tortues
-Elseya albagula Thomson, Georges et Limpus, 2006
-Chélidé découvert dans la rivière Burnett, au Queensland (Australie)
-Lézards
-Asaccus nasrullahi Werner, 2006
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tortues</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elseya albagula Thomson, Georges et Limpus, 2006
+Chélidé découvert dans la rivière Burnett, au Queensland (Australie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lézards</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Asaccus nasrullahi Werner, 2006
 Geckonidé découvert en Iran.
 Cnemaspis ranwellai Wickramasinghe, 2006
-Gekkonidé découvert au Sri Lanka[1].
+Gekkonidé découvert au Sri Lanka.
 Cyrtodactylus badenensis Ngoc Sang, Orlov et Darevsky, 2006
 Geckonidé découvert au Viêt Nam.
 Cyrtodactylus murua Klaus et Allison, 2006
-Gekkonidé découvert en Papouasie-Nouvelle-Guinée [2].
+Gekkonidé découvert en Papouasie-Nouvelle-Guinée .
 Cyrtodactylus nigriocularis Ngoc Sang, Orlov et Darevsky, 2006
 Geckonidé découvert au Vietnam.
 Cyrtodactylus seribuatensis Youmans &amp; Grismer, 2006
-Geckonidé découvert en Malaisie[3].
+Geckonidé découvert en Malaisie.
 Hemidactylus beninensis Bauer, Tchiboso, Pauwels et Lenglet, 2006
 Geckonidé découvert au Bénin.
 Hemidactylus makolowodei Bauer, Le Breton, Chirio, Ineich et Kouete, 2006
-Geckonidé découvert au Cameroun[4].
+Geckonidé découvert au Cameroun.
 Oedodera marmorata Bauer, Jackman, Sadlier et Whitaker, 2006
-Gekko découvert en Nouvelle-Calédonie. Nouveau genre[5].
+Gekko découvert en Nouvelle-Calédonie. Nouveau genre.
 Pristurus adrarensis Geniez et Arnold, 2006
-Gekkonidé découvert en Mauritanie[6].
+Gekkonidé découvert en Mauritanie.
 Uroplatus giganteus Glaw, Kosuch, Henkel, Sound &amp; Böhme, 2006
-Geckonidé découvert à Madagascar[7]
+Geckonidé découvert à Madagascar
 Liolaemus montanezi Cabrera et Monguillot, 2006
-Liolémidé [8].
+Liolémidé .
 Liolaemus sp. Scolaro et Sei, 2006
-Liolémidé découvert en Argentine[9].
+Liolémidé découvert en Argentine.
 Carlia sp. Zug et Allison, 2006
-Scincidé découvert en Argentine[10].
+Scincidé découvert en Argentine.
 Nannoscincus garrulus Sadlier, Bauer et Smith, 2006
-Scincidé découvert en Nouvelle-Calédonie [11].
+Scincidé découvert en Nouvelle-Calédonie .
 Mabuya altamazonica Miralles, Barrio-amoros, Rivas, Chaparro-auza, 2006
-Scincidé découvert en Amazonie peruvienne[12]
+Scincidé découvert en Amazonie peruvienne
 Mabuya berengerae Miralles, 2006
-Scincidé découvert sur l'ile de San Andrés, Colombie[13]
+Scincidé découvert sur l'ile de San Andrés, Colombie
 Varanus bushi Aplin, Fitch et King, 2006
-Varanidé découvert en Australie[14].
+Varanidé découvert en Australie.
 Eremias cholistanica Baig et Masroor, 2006
-Lacertidé découvert au Pakistan[15].
+Lacertidé découvert au Pakistan.
 Iberolacerta galani Arribas, Carranza et Odierna, 2006
-Lacertidé découvert en Espagne[16].
+Lacertidé découvert en Espagne.
 Psammodromus jeanneae Busack, Salvador et Lawson, 2006
-Lacertidé découvert dans la province de Cadix (Espagne) [17].
+Lacertidé découvert dans la province de Cadix (Espagne) .
 Psammodromus manuelae Busack, Salvador et Lawson, 2006
-Lacertidé découvert dans la province de Madrid (Espagne) [17].
-Serpents
-Tropidophiidés
+Lacertidé découvert dans la province de Madrid (Espagne) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Serpents</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tropidophiidés
 Tropidophis xanthogaster Domínguez, Moreno et Hedges, 2006
-Tropidophiidé découvert dans la péninsule de Guanahacabibes à Cuba[18].
+Tropidophiidé découvert dans la péninsule de Guanahacabibes à Cuba.
 Colubridés
 Amphiesma andreae Ziegler et Le, 2006
 Colubridé découvert au Vietnam.
@@ -580,45 +676,195 @@
 Colubridé découvert au Vietnam.
 Vipéridés
 Popeia buniana Grismer (L. Lee), Grismer (Jesse L.) &amp; McGuire, 2006
-Découvert dans l'île Tioman (Pulau Tioman) (Pahang, Malaysia) [19].
-Accession au statut d'espèce (2006)
-Espèces fossiles (2006)
-Crocodilomorphes
-Effigia okeeffeae Nesbitt et Norell, 2006
-Archosaure crocodilomorphe découvert par Edwin H. Colbert en 1947. L'épithète spécifique commémore le peintre Georgia O'keeffe qui avait fréquenté la région du Nouveau-Mexique où l'espèce a été découverte[20].
-Cynodontes
-Elliotherium kersteni Sidor et Hancox, 2006
-Reptile cynodonte tritheledontidé découvert dans le Trias d'Afrique du sud[21].
-Diapsides
-Geosuchus saltillense Buchy &amp; al., 2006
-Métriorhynchidé découvert dans le Jurassiquie du Mexique.
-Dinosaures
-Adamantisaurus mezzalirai Santucci et Bertini, 2006
+Découvert dans l'île Tioman (Pulau Tioman) (Pahang, Malaysia) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Crocodilomorphes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Effigia okeeffeae Nesbitt et Norell, 2006
+Archosaure crocodilomorphe découvert par Edwin H. Colbert en 1947. L'épithète spécifique commémore le peintre Georgia O'keeffe qui avait fréquenté la région du Nouveau-Mexique où l'espèce a été découverte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cynodontes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elliotherium kersteni Sidor et Hancox, 2006
+Reptile cynodonte tritheledontidé découvert dans le Trias d'Afrique du sud.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Diapsides</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Geosuchus saltillense Buchy &amp; al., 2006
+Métriorhynchidé découvert dans le Jurassiquie du Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Adamantisaurus mezzalirai Santucci et Bertini, 2006
 Alaskacephale gangloffi Sullivan, 2006
 Dinosaure pachycéphalosauridé découvert en Alaska.
 Antarctopelta oliveroi Salgado et Gasparini, 2006
 Ankylosaure découvert en 1986 dans le Crétacé de la péninsule antarctique, mais décrit officiellement seulement vingt ans après. Fut le premier dinosaure trouvé en Antarctique. L'épithète spécifique honore le géologue argentin Eduardo Olivero qui découvrit le seul spécimen connu.
 Dracorex hogwartsia Bakker, Sullivan, Porter, Larson et Salsbury, 2006
-Dinosaure pachycéphalosauridé découvert dans le Crétacé du Dakota du Sud[22].
+Dinosaure pachycéphalosauridé découvert dans le Crétacé du Dakota du Sud.
 L'épithète spécifique fait référence à Poudlard (en anglais Hogwarts), la fameuse école de sorcellerie d'Harry Potter dans les romans de J. K. Rowling.
 Erketu ellisoni Ksepka et Norell, 2006
-Dinosaure sauropode découvert en Mongolie[23].
+Dinosaure sauropode découvert en Mongolie.
 Europasaurus holgeri Sander, Mateus, Laven et Knötschke, 2006
-Dinosaure découvert dans le nord de l'Allemagne en 1998 par Holger Luedtke[24].
+Dinosaure découvert dans le nord de l'Allemagne en 1998 par Holger Luedtke.
 Fusuisaurus zhaoi Mo et al., 2006
 Sauropode découvert dans le Crétacé de Chine
 Guanlong wucaii Xu et al., 2006
 Tyrannosaure découvert dans le Jurassique de Chine.
 Jiutaisaurus xidiensis Wu, Dong, Sun, Li (C.-T.) et Li (T.), 2006
-Dinosaure sauropode découvert dans le Crétacé de Chine[25].
+Dinosaure sauropode découvert dans le Crétacé de Chine.
 Juravenator starki Göhlich et Chiappe, 2006
 Compsognathidé découvert dans le Jura (Bavière, Allemagne)
 Koutalisaurus kohlerorum Prieto-Marquez &amp; al., 2006
 Hadrosauridé découvert en Espagne.
 Mapusaurus roseae Coria et Currie, 2006
-Dinosaure carcharodontosauridé [26].
+Dinosaure carcharodontosauridé .
 Maxakalisaurus topai Kellner, Campos, Azevedo, Trotta, Henriques, Craik et Silva, 2006
-Titanosaure saltasauridé découvert au Brésil[27]. Le nom du genre fait référence aux Indiens Maxakali, et l'épithète spécifique à Topa, divinité qu'ils honorent.
+Titanosaure saltasauridé découvert au Brésil. Le nom du genre fait référence aux Indiens Maxakali, et l'épithète spécifique à Topa, divinité qu'ils honorent.
 Puertasaurus reuilli Novas et al., 2006
 Titanosauridé.
 Sonidosaurus saihangaobiensis Xu et al., 2006
@@ -632,25 +878,215 @@
 Yuanmousaurus jiangyiensis Lu et al., 2006
 Dinosaure
 Zapalasaurus bonapartei Salgado, Cavalho et Garrido, 2006
-Dinosaure sauropode découvert en Argentine.
-Ichthyosaures
-Ichthyosaure du ping-pong (Maiaspondylus lindoei Maxwell et Caldwell, 2006)
-Redécouvert sous une table de ping-pong, 25 ans après sa collecte. Originaire de la Loon River Formation, du Crétacé inférieur, dans les Territoires du Nord-Ouest, au Canada. L'épithète spécifique honore le technicien Allan Lindoe, qui a contribué à sa découverte[28].
-Plésiosaures
-Umoonasaurus demoscyllus Kear, Schroeder et Lee, 2006
+Dinosaure sauropode découvert en Argentine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ichthyosaures</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ichthyosaure du ping-pong (Maiaspondylus lindoei Maxwell et Caldwell, 2006)
+Redécouvert sous une table de ping-pong, 25 ans après sa collecte. Originaire de la Loon River Formation, du Crétacé inférieur, dans les Territoires du Nord-Ouest, au Canada. L'épithète spécifique honore le technicien Allan Lindoe, qui a contribué à sa découverte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Plésiosaures</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Umoonasaurus demoscyllus Kear, Schroeder et Lee, 2006
 Plésiosaure rhomaléosauridé découvert en 1987 en Australie du sud
 Opallionectes andamookaensis Kear, 2006
 Plésiosaure découvert en Australie
 Futabasaurus suzukii Sato, Hasegawa et Manabe, 2006
-Plésiosaure élasmosauridé découvert dans le Crétacé du Japon
-Ptérosaures
-Caviramus schesaplanensis Fröbisch et Fröbisch, 2006
-Découvert dans le Trias de Suisse.
-Serpents
-Najash rionegrina Apesteguia et Zaher, 2006
-Serpent découvert dans le Crétacé de la province du Rio Negro, en Patagonie argentine.
-Tortues
-Merovemys ploegi Hervet, 2006
+Plésiosaure élasmosauridé découvert dans le Crétacé du Japon</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ptérosaures</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Caviramus schesaplanensis Fröbisch et Fröbisch, 2006
+Découvert dans le Trias de Suisse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Serpents</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Najash rionegrina Apesteguia et Zaher, 2006
+Serpent découvert dans le Crétacé de la province du Rio Negro, en Patagonie argentine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_décrites_en_2006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9crites_en_2006</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Espèces fossiles (2006)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tortues</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Merovemys ploegi Hervet, 2006
 Ptychogastéridé découvert dans l'Oise, dans les argiles à lignite du Soissonnais (Éocène)</t>
         </is>
       </c>
